--- a/matrix/executed/api/email verification/username_positive.xlsx
+++ b/matrix/executed/api/email verification/username_positive.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\matrix\reviewed\api\email verification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\matrix\executed\api\email verification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5A9070-3D0B-4690-A651-0E50054461F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC75507-F440-44BA-A463-90F37375F9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
